--- a/실무_엑셀_예제_파일/Chapter02/02-001.xlsx
+++ b/실무_엑셀_예제_파일/Chapter02/02-001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google 드라이브\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15BBF2B-110C-4597-9C83-49DC4058FDDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2A57B-A5B4-42B4-B98F-871B2A5D010E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="720" windowWidth="19068" windowHeight="10764" xr2:uid="{C7AC84A3-8E37-4DD1-8C77-DA7E32000136}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C7AC84A3-8E37-4DD1-8C77-DA7E32000136}"/>
   </bookViews>
   <sheets>
     <sheet name="천만리자전거" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -447,10 +447,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -465,53 +465,53 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,32 +829,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534EE80D-2DF1-4446-AB7E-F00D0AEA2842}">
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
-    <col min="4" max="9" width="12.09765625" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="9" width="12.08203125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="2:10" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -865,11 +867,11 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="2:10" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:10" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="15">
         <v>0.03</v>
       </c>
@@ -893,30 +895,30 @@
         <v>3.5500000000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="32"/>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="28"/>
-      <c r="C6" s="30"/>
+    <row r="6" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
@@ -935,10 +937,10 @@
       <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="26" t="s">
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -967,8 +969,8 @@
         <v>125200000</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="26"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="21"/>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
@@ -995,8 +997,8 @@
         <v>116050000</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="26"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="21"/>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1023,8 +1025,8 @@
         <v>109170000</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="26"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="21"/>
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1051,8 +1053,8 @@
         <v>116580000</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1081,8 +1083,8 @@
         <v>111990000</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="26"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="21"/>
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1109,8 +1111,8 @@
         <v>134030000</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="26"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="21"/>
       <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1137,8 +1139,8 @@
         <v>100820000</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="26"/>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="21"/>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1165,8 +1167,8 @@
         <v>124020000</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="26"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="21"/>
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1194,15 +1196,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G5:I5"/>
+  <mergeCells count="6">
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B2:J2"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
